--- a/Data/TrackCourse.xlsx
+++ b/Data/TrackCourse.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fara7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\career\ITP\GP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18B4F8A-92F8-4531-9BD7-7F3E505BDD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="2904" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,9 +46,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,11 +361,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="66" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,7 +374,7 @@
     <col min="2" max="2" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -373,507 +382,515 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>35</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>24</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>37</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>38</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>37</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>8</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="B31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>9</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>22</v>
       </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>23</v>
       </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>24</v>
       </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="B37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>13</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>14</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>15</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>33</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>34</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>22</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>23</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>24</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>37</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>16</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>17</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>18</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>29</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>30</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>22</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>23</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>24</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>37</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>2</v>
       </c>
-      <c r="B57">
+      <c r="B58" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>3</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>25</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>36</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>22</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>23</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>24</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>37</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="2">
         <v>7</v>
       </c>
     </row>
